--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2197.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2197.xlsx
@@ -354,7 +354,7 @@
         <v>1.81562910280873</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.697998748217542</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2197.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2197.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.049501735089089</v>
+        <v>0.8648375868797302</v>
       </c>
       <c r="B1">
-        <v>1.81562910280873</v>
+        <v>1.540218114852905</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.324757099151611</v>
       </c>
       <c r="D1">
-        <v>1.697998748217542</v>
+        <v>3.01220440864563</v>
       </c>
       <c r="E1">
-        <v>1.009367643165705</v>
+        <v>1.576457381248474</v>
       </c>
     </row>
   </sheetData>
